--- a/legendre_out/DATA/p1/p1_dataPointsAtSingleEnergy.xlsx
+++ b/legendre_out/DATA/p1/p1_dataPointsAtSingleEnergy.xlsx
@@ -391,10 +391,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000101018406</v>
+        <v>9.953628359999999e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>6.72377415e-06</v>
+        <v>6.44135711e-06</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000100450886</v>
+        <v>0.000102306913</v>
       </c>
       <c r="D3" t="n">
-        <v>8.808420999999999e-06</v>
+        <v>8.30720633e-06</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +419,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000101194652</v>
+        <v>0.000105795269</v>
       </c>
       <c r="D4" t="n">
-        <v>8.537728230000001e-06</v>
+        <v>8.343928139999999e-06</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>9.59356298e-05</v>
+        <v>9.79182795e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>7.812021030000001e-06</v>
+        <v>7.51447593e-06</v>
       </c>
     </row>
     <row r="6">
@@ -447,10 +447,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>9.39650548e-05</v>
+        <v>8.75778608e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>9.127539109999998e-06</v>
+        <v>7.608955190000001e-06</v>
       </c>
     </row>
     <row r="7">
@@ -461,10 +461,10 @@
         <v>75.00000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>9.94720078e-05</v>
+        <v>9.528024290000001e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0883372e-06</v>
+        <v>7.24799531e-06</v>
       </c>
     </row>
     <row r="8">
@@ -475,10 +475,10 @@
         <v>59.99999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.965067359999999e-05</v>
+        <v>0.000100476726</v>
       </c>
       <c r="D8" t="n">
-        <v>6.77713976e-06</v>
+        <v>6.67880774e-06</v>
       </c>
     </row>
   </sheetData>
